--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1268.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1268.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.560126830041662</v>
+        <v>1.181047201156616</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.190061807632446</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>10.49327087402344</v>
       </c>
       <c r="D1">
-        <v>1.198242893756176</v>
+        <v>2.56791090965271</v>
       </c>
       <c r="E1">
-        <v>0.755018305144307</v>
+        <v>1.241783857345581</v>
       </c>
     </row>
   </sheetData>
